--- a/translations/reports/en-gb/CompanyProceduresReportTemplate.xlsx
+++ b/translations/reports/en-gb/CompanyProceduresReportTemplate.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac6660d0d4d593d7/Документы/GitHub/AZLocalize1/translations/reports/en-gb/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_A0033F98744B10D0055AD9DA260DAFB664768FAB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D70F0B07-D39D-403F-A113-A7020DD59E26}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,261 +27,235 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
-    <t xml:space="preserve">Сompany requests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Generated by Bidzaar at $.Now, times values in the document are in $.Tz timezone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.CreatedCompany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winner selection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Created</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Published</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bid acceptance due date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants (incl. invited)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants (agreed to participate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants (with an offer)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winners qty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price change</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worst starting bid price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best starting bid price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winner's starting bid price</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average price of starting bids</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bid quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Views</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tags</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Budget</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Nds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].CreatedDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].PublishDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].AcceptanceEndDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FinishDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].AllParticipants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ParticipantsCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ProposalsCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].WinnersCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Winners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].OrderPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ComaSeparatedOwners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ChangeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Saving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstWorstPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstBestPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstWinnerPrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].FirstAveragePrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].RequireFull</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].ViewCount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$.Procedures[*].Tags</t>
+    <t>Сompany requests</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>$.CreatedCompany</t>
+  </si>
+  <si>
+    <t>Request ID</t>
+  </si>
+  <si>
+    <t>Request</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Winner selection</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Published</t>
+  </si>
+  <si>
+    <t>Bid acceptance due date</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>Participants (incl. invited)</t>
+  </si>
+  <si>
+    <t>Participants (agreed to participate)</t>
+  </si>
+  <si>
+    <t>Participants (with an offer)</t>
+  </si>
+  <si>
+    <t>Winners qty.</t>
+  </si>
+  <si>
+    <t>Winners</t>
+  </si>
+  <si>
+    <t>Order price</t>
+  </si>
+  <si>
+    <t>Owners</t>
+  </si>
+  <si>
+    <t>Price change</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>Worst starting bid price</t>
+  </si>
+  <si>
+    <t>Best starting bid price</t>
+  </si>
+  <si>
+    <t>Winner's starting bid price</t>
+  </si>
+  <si>
+    <t>Average price of starting bids</t>
+  </si>
+  <si>
+    <t>Bid quantity</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Number</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Name</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Status</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Type</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Budget</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Currency</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Nds</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].CreatedDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].PublishDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].AcceptanceEndDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FinishDate</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].AllParticipants</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ParticipantsCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ProposalsCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].WinnersCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Winners</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].OrderPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ComaSeparatedOwners</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ChangeType</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Saving</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstWorstPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstBestPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstWinnerPrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].FirstAveragePrice</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].RequireFull</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].ViewCount</t>
+  </si>
+  <si>
+    <t>$.Procedures[*].Tags</t>
+  </si>
+  <si>
+    <t>Generated by ProcureSaaS at $.Now, times values in the document are in $.Tz timezone</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00&quot; ₽&quot;"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; ₽&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="18"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="134"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="12"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -289,21 +268,23 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -315,98 +296,49 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -465,62 +397,370 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="92.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="8" style="0" width="16.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="58.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="20" style="0" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="27.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="0" width="105.3"/>
+    <col min="1" max="1" width="14.54296875" customWidth="1"/>
+    <col min="2" max="2" width="92.36328125" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" customWidth="1"/>
+    <col min="5" max="6" width="20.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="16" width="16.453125" customWidth="1"/>
+    <col min="17" max="17" width="20.7265625" customWidth="1"/>
+    <col min="18" max="18" width="30.7265625" customWidth="1"/>
+    <col min="19" max="19" width="58.7265625" customWidth="1"/>
+    <col min="20" max="24" width="20.7265625" customWidth="1"/>
+    <col min="25" max="25" width="27.26953125" customWidth="1"/>
+    <col min="26" max="26" width="13.54296875" customWidth="1"/>
+    <col min="27" max="27" width="105.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:64" ht="23.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:64" ht="15.5">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:64" ht="15.5">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:64" ht="15.5">
       <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:64">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -586,87 +826,87 @@
       <c r="BK5" s="4"/>
       <c r="BL5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:64" ht="15.5">
       <c r="A6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="N6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="O6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="R6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="S6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="U6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="V6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="W6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="X6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="Y6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="Z6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="AA6" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -706,87 +946,87 @@
       <c r="BK6" s="4"/>
       <c r="BL6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:64" ht="15.5">
       <c r="A7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="I7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="M7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="N7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="O7" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="P7" s="8" t="s">
+      <c r="Q7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="R7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R7" s="10" t="s">
+      <c r="S7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="S7" s="8" t="s">
+      <c r="T7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="U7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="V7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="W7" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="X7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="Y7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Z7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Z7" s="8" t="s">
+      <c r="AA7" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="AA7" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
@@ -825,7 +1065,7 @@
       <c r="BJ7" s="4"/>
       <c r="BK7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:64">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -891,7 +1131,7 @@
       <c r="BK8" s="4"/>
       <c r="BL8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:64">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -957,7 +1197,7 @@
       <c r="BK9" s="4"/>
       <c r="BL9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:64">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1023,7 +1263,7 @@
       <c r="BK10" s="4"/>
       <c r="BL10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:64">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1089,22 +1329,17 @@
       <c r="BK11" s="4"/>
       <c r="BL11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:64">
       <c r="F12" s="12"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:64">
       <c r="F13" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" display="$.Procedures[*].Number"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>